--- a/Datos/estado.xlsx
+++ b/Datos/estado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HeadHunters\Desktop\Documents\GitHub\proyecto\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8A5BBF64-AC74-4433-9ABA-23578B58BECA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8C107AE6-D114-4113-A9BE-E8DEB8F34C78}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" xr2:uid="{99EE2903-5824-48A8-AD85-2563108FEF6F}"/>
   </bookViews>
@@ -123,19 +123,19 @@
     <t>Zacatecas</t>
   </si>
   <si>
-    <t>CDMX-Zona Norte</t>
-  </si>
-  <si>
-    <t>CDMX-Zona Sur</t>
-  </si>
-  <si>
-    <t>CDMX-Zona Oriente</t>
-  </si>
-  <si>
-    <t>CDMX-Zona Poniente</t>
-  </si>
-  <si>
     <t>idZona</t>
+  </si>
+  <si>
+    <t>CDMX Zona Norte</t>
+  </si>
+  <si>
+    <t>CDMX Zona Sur</t>
+  </si>
+  <si>
+    <t>CDMX Zona Oriente</t>
+  </si>
+  <si>
+    <t>CDMX Zona Poniente</t>
   </si>
 </sst>
 </file>
@@ -492,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{145B2EA6-299A-48D7-82F9-12EF5806CD25}">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="A15:B15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,7 +503,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -762,7 +762,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -770,7 +770,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -778,7 +778,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -786,7 +786,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
